--- a/Exp2021/Протоколы наблюдений и описаний Лето 2021.xlsx
+++ b/Exp2021/Протоколы наблюдений и описаний Лето 2021.xlsx
@@ -7,95 +7,131 @@
     <workbookView windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bysdynam" sheetId="1" r:id="rId1"/>
     <sheet name="Touchtred 2021" sheetId="2" r:id="rId2"/>
     <sheet name="BysForce" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BysForce!$A$1:$F$87</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="181">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Morphotype</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Passage</t>
+  </si>
+  <si>
+    <t>N_byss</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>18,6</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>16,6</t>
+  </si>
+  <si>
+    <t>24,3</t>
+  </si>
+  <si>
+    <t>23,6</t>
+  </si>
+  <si>
+    <t>21,5</t>
+  </si>
+  <si>
+    <t>21,3</t>
+  </si>
+  <si>
+    <t>22,2</t>
+  </si>
+  <si>
+    <t>26,0</t>
+  </si>
+  <si>
+    <t>18,7</t>
+  </si>
+  <si>
+    <t>Date_of_Begin</t>
+  </si>
+  <si>
+    <t>Date_of_End</t>
+  </si>
+  <si>
+    <t>Cage</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Expected_Donor</t>
+  </si>
+  <si>
+    <t>True_Donor</t>
+  </si>
+  <si>
+    <t>Expected_Recipient</t>
+  </si>
+  <si>
+    <t>True_Recipient</t>
+  </si>
+  <si>
+    <t>Byss_to_Substrate</t>
+  </si>
+  <si>
+    <t>Byss_to_Recipient</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
   <si>
     <t>Force</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Morph</t>
   </si>
   <si>
-    <t>t</t>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>1.784</t>
+  </si>
+  <si>
+    <t>21.63</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>17.25</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>16.43</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Date_of_Begin</t>
-  </si>
-  <si>
-    <t>Date_of_End</t>
-  </si>
-  <si>
-    <t>Cage</t>
-  </si>
-  <si>
-    <t>Plate</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Expected_Donor</t>
-  </si>
-  <si>
-    <t>True_Donor</t>
-  </si>
-  <si>
-    <t>Expected_Recipient</t>
-  </si>
-  <si>
-    <t>True_Recipient</t>
-  </si>
-  <si>
-    <t>Byss_to_Substrate</t>
-  </si>
-  <si>
-    <t>Byss_to_Recipient</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>N_byss</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>1.784</t>
-  </si>
-  <si>
-    <t>21.63</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>17.25</t>
-  </si>
-  <si>
-    <t>0.721</t>
-  </si>
-  <si>
-    <t>16.43</t>
-  </si>
-  <si>
     <t>28.44</t>
   </si>
   <si>
@@ -313,6 +349,219 @@
   </si>
   <si>
     <t xml:space="preserve"> 22.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.077</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.5</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.2</t>
+  </si>
+  <si>
+    <t>2.721</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.0</t>
+  </si>
+  <si>
+    <t>1.231</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.7</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.9</t>
+  </si>
+  <si>
+    <t>2.419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.4</t>
+  </si>
+  <si>
+    <t>2.585</t>
+  </si>
+  <si>
+    <t>3.568</t>
+  </si>
+  <si>
+    <t>3.184</t>
+  </si>
+  <si>
+    <t>1.981</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.1</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.7</t>
+  </si>
+  <si>
+    <t>2.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.5</t>
+  </si>
+  <si>
+    <t>2.521</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27.7</t>
+  </si>
+  <si>
+    <t>2.989</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.9</t>
+  </si>
+  <si>
+    <t>2.854</t>
+  </si>
+  <si>
+    <t>2.355</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.9</t>
+  </si>
+  <si>
+    <t>2.667</t>
+  </si>
+  <si>
+    <t>1.513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.9</t>
+  </si>
+  <si>
+    <t>1.245</t>
+  </si>
+  <si>
+    <t>3.762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.5</t>
+  </si>
+  <si>
+    <t>1.467</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.8</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.6</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.2</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>0.220</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.5</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.0</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.3</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.4</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.7</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.4</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.2</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.0</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.8</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.287</t>
   </si>
 </sst>
 </file>
@@ -320,12 +569,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -343,16 +592,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,14 +608,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +632,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,7 +655,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,30 +709,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,13 +738,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +816,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,151 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +929,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -694,6 +958,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,21 +1003,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -757,21 +1021,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -785,16 +1034,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,34 +1055,31 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,91 +1088,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -934,10 +1183,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,15 +1508,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C11"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1277,115 +1526,691 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>55</v>
-      </c>
-      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>61</v>
-      </c>
-      <c r="B5">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>87</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>57</v>
-      </c>
-      <c r="B8">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1417,37 +2242,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1502,13 +2327,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1537,10 +2362,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1572,10 +2397,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -1642,16 +2467,16 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>42</v>
@@ -1677,10 +2502,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -1718,10 +2543,10 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -1747,16 +2572,16 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1817,16 +2642,16 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1893,10 +2718,10 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1922,10 +2747,10 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
         <v>5</v>
@@ -1963,10 +2788,10 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1992,7 +2817,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -2027,16 +2852,16 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J18">
         <v>18</v>
@@ -2068,10 +2893,10 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2097,10 +2922,10 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
@@ -2132,16 +2957,16 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>18</v>
@@ -2170,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
@@ -2237,16 +3062,16 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>5</v>
@@ -2272,10 +3097,10 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
@@ -2313,10 +3138,10 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J26">
         <v>7</v>
@@ -2348,10 +3173,10 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2412,16 +3237,16 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -2447,7 +3272,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
@@ -2488,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2552,16 +3377,16 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J33">
         <v>5</v>
@@ -2622,16 +3447,16 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <v>74</v>
@@ -2657,10 +3482,10 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -2698,10 +3523,10 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>7</v>
@@ -2762,16 +3587,16 @@
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2797,10 +3622,10 @@
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
@@ -2838,10 +3663,10 @@
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -2902,16 +3727,16 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <v>16</v>
@@ -2937,16 +3762,16 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <v>21</v>
@@ -2978,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -3007,10 +3832,10 @@
         <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -3048,10 +3873,10 @@
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J47">
         <v>30</v>
@@ -3077,13 +3902,13 @@
         <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -3112,16 +3937,16 @@
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <v>78</v>
@@ -3188,10 +4013,10 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -3252,16 +4077,16 @@
         <v>53</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <v>70</v>
@@ -3287,10 +4112,10 @@
         <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
@@ -3328,10 +4153,10 @@
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J55">
         <v>13</v>
@@ -3363,10 +4188,10 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J56">
         <v>14</v>
@@ -3427,16 +4252,16 @@
         <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J58">
         <v>44</v>
@@ -3503,10 +4328,10 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I60" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J60">
         <v>11</v>
@@ -3532,10 +4357,10 @@
         <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H61" t="s">
         <v>5</v>
@@ -3567,10 +4392,10 @@
         <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H62" t="s">
         <v>5</v>
@@ -3608,10 +4433,10 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -3678,10 +4503,10 @@
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J65">
         <v>6</v>
@@ -3707,10 +4532,10 @@
         <v>66</v>
       </c>
       <c r="F66" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
         <v>5</v>
@@ -3742,16 +4567,16 @@
         <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H67" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J67">
         <v>30</v>
@@ -3847,16 +4672,16 @@
         <v>70</v>
       </c>
       <c r="F70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J70">
         <v>15</v>
@@ -3882,10 +4707,10 @@
         <v>71</v>
       </c>
       <c r="F71" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -3923,10 +4748,10 @@
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <v>24</v>
@@ -3952,16 +4777,16 @@
         <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J73">
         <v>47</v>
@@ -3990,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -4028,10 +4853,10 @@
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J75">
         <v>26</v>
@@ -4057,10 +4882,10 @@
         <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -4098,10 +4923,10 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J77">
         <v>8</v>
@@ -4127,10 +4952,10 @@
         <v>78</v>
       </c>
       <c r="F78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H78" t="s">
         <v>5</v>
@@ -4162,16 +4987,16 @@
         <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J79">
         <v>7</v>
@@ -4232,10 +5057,10 @@
         <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H81" t="s">
         <v>5</v>
@@ -4273,10 +5098,10 @@
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J82">
         <v>36</v>
@@ -4337,16 +5162,16 @@
         <v>84</v>
       </c>
       <c r="F84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J84">
         <v>68</v>
@@ -4372,16 +5197,16 @@
         <v>85</v>
       </c>
       <c r="F85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J85">
         <v>76</v>
@@ -4407,10 +5232,10 @@
         <v>86</v>
       </c>
       <c r="F86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H86" t="s">
         <v>5</v>
@@ -4448,10 +5273,10 @@
         <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I87" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J87">
         <v>49</v>
@@ -4483,10 +5308,10 @@
         <v>5</v>
       </c>
       <c r="H88" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I88" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J88">
         <v>24</v>
@@ -4512,16 +5337,16 @@
         <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J89">
         <v>23</v>
@@ -4547,7 +5372,7 @@
         <v>90</v>
       </c>
       <c r="F90" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
@@ -4582,16 +5407,16 @@
         <v>91</v>
       </c>
       <c r="F91" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I91" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J91">
         <v>32</v>
@@ -4658,10 +5483,10 @@
         <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J93">
         <v>12</v>
@@ -4687,10 +5512,10 @@
         <v>94</v>
       </c>
       <c r="F94" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H94" t="s">
         <v>5</v>
@@ -4714,32 +5539,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4750,16 +5575,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4770,16 +5595,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4790,16 +5615,16 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4810,7 +5635,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -4819,7 +5644,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,16 +5655,16 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4850,7 +5675,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -4859,7 +5684,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4870,16 +5695,16 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4890,16 +5715,16 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4907,19 +5732,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4930,16 +5755,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4950,16 +5775,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4970,16 +5795,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4990,7 +5815,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -4999,7 +5824,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5010,7 +5835,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -5019,7 +5844,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5030,7 +5855,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -5039,7 +5864,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5050,7 +5875,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5059,7 +5884,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5070,7 +5895,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>21</v>
@@ -5079,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5090,7 +5915,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -5099,7 +5924,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5110,16 +5935,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D20">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5130,7 +5955,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>21</v>
@@ -5139,7 +5964,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5150,7 +5975,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -5159,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5170,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>31</v>
@@ -5190,7 +6015,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -5199,7 +6024,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5210,13 +6035,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -5230,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>61</v>
@@ -5239,7 +6064,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5250,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <v>68</v>
@@ -5259,7 +6084,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5270,7 +6095,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>25</v>
@@ -5279,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5290,16 +6115,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5310,7 +6135,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -5319,7 +6144,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5330,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D31">
         <v>23</v>
@@ -5339,7 +6164,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5350,7 +6175,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D32">
         <v>45</v>
@@ -5359,7 +6184,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5370,7 +6195,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D33">
         <v>12</v>
@@ -5379,7 +6204,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5390,16 +6215,16 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5410,16 +6235,16 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D35">
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5430,7 +6255,7 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D36">
         <v>56</v>
@@ -5439,7 +6264,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5450,7 +6275,7 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D37">
         <v>79</v>
@@ -5459,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5470,16 +6295,16 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5490,7 +6315,7 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D39">
         <v>89</v>
@@ -5499,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5510,16 +6335,16 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D40">
         <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5530,16 +6355,16 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D41">
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5550,16 +6375,16 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D42">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5570,7 +6395,7 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D43">
         <v>26</v>
@@ -5579,10 +6404,893 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59">
+        <v>51</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60">
+        <v>48</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>48</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65">
+        <v>55</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F87">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Exp2021/Протоколы наблюдений и описаний Лето 2021.xlsx
+++ b/Exp2021/Протоколы наблюдений и описаний Лето 2021.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bysdynam" sheetId="1" r:id="rId1"/>
     <sheet name="Touchtred 2021" sheetId="2" r:id="rId2"/>
-    <sheet name="BysForce" sheetId="3" r:id="rId3"/>
+    <sheet name="BysForce_Pilot" sheetId="3" r:id="rId3"/>
+    <sheet name="BysForce" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BysForce!$A$1:$F$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BysForce_Pilot!$A$1:$F$87</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -562,6 +563,27 @@
   </si>
   <si>
     <t>0.287</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>FT</t>
   </si>
 </sst>
 </file>
@@ -569,12 +591,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -586,15 +608,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,14 +622,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,7 +637,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,9 +658,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,6 +684,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,13 +731,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -716,7 +738,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,13 +760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +790,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,25 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,115 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,6 +951,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -948,16 +996,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,32 +1021,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,148 +1056,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,10 +1205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5541,7 +5563,7 @@
   <sheetPr/>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
@@ -7294,4 +7316,821 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:D57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20">
+        <v>201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24">
+        <v>205</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27">
+        <v>208</v>
+      </c>
+      <c r="C27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29">
+        <v>210</v>
+      </c>
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31">
+        <v>212</v>
+      </c>
+      <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32">
+        <v>213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33">
+        <v>214</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34">
+        <v>215</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35">
+        <v>216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36">
+        <v>217</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37">
+        <v>218</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38">
+        <v>219</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39">
+        <v>301</v>
+      </c>
+      <c r="C39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40">
+        <v>302</v>
+      </c>
+      <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41">
+        <v>303</v>
+      </c>
+      <c r="C41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42">
+        <v>304</v>
+      </c>
+      <c r="C42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43">
+        <v>305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44">
+        <v>306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45">
+        <v>307</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46">
+        <v>308</v>
+      </c>
+      <c r="C46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47">
+        <v>309</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48">
+        <v>310</v>
+      </c>
+      <c r="C48" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49">
+        <v>311</v>
+      </c>
+      <c r="C49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50">
+        <v>312</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51">
+        <v>313</v>
+      </c>
+      <c r="C51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52">
+        <v>315</v>
+      </c>
+      <c r="C52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53">
+        <v>316</v>
+      </c>
+      <c r="C53" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54">
+        <v>317</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55">
+        <v>318</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56">
+        <v>319</v>
+      </c>
+      <c r="C56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57">
+        <v>320</v>
+      </c>
+      <c r="C57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Exp2021/Протоколы наблюдений и описаний Лето 2021.xlsx
+++ b/Exp2021/Протоколы наблюдений и описаний Лето 2021.xlsx
@@ -14,13 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BysForce_Pilot!$A$1:$F$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BysForce!$A$1:$I$165</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="627">
   <si>
     <t>ID</t>
   </si>
@@ -571,32 +572,1350 @@
     <t>Label</t>
   </si>
   <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>Z</t>
   </si>
   <si>
+    <t>Z1</t>
+  </si>
+  <si>
     <t>r</t>
   </si>
   <si>
+    <t>1.536</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>20.42</t>
+  </si>
+  <si>
     <t>l</t>
   </si>
   <si>
+    <t>1.163</t>
+  </si>
+  <si>
+    <t>0.610</t>
+  </si>
+  <si>
+    <t>18.47</t>
+  </si>
+  <si>
+    <t>1.157</t>
+  </si>
+  <si>
+    <t>23.90</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>20.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.048</t>
+  </si>
+  <si>
+    <t>22.80</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>1.763</t>
+  </si>
+  <si>
+    <t>24.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.091</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>19.21</t>
+  </si>
+  <si>
+    <t>2.677</t>
+  </si>
+  <si>
+    <t>1.535</t>
+  </si>
+  <si>
+    <t>25.70</t>
+  </si>
+  <si>
+    <t>2.692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.10</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.073</t>
+  </si>
+  <si>
+    <t>22.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.053</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>20.83</t>
+  </si>
+  <si>
+    <t>1.250</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>20.46</t>
+  </si>
+  <si>
+    <t>1.966</t>
+  </si>
+  <si>
+    <t>0.757</t>
+  </si>
+  <si>
+    <t>21.16</t>
+  </si>
+  <si>
+    <t>1.581</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>21.48</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>17.36</t>
+  </si>
+  <si>
+    <t>1.688</t>
+  </si>
+  <si>
+    <t>0.869</t>
+  </si>
+  <si>
+    <t>21.95</t>
+  </si>
+  <si>
+    <t>1.727</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>21.52</t>
+  </si>
+  <si>
+    <t>2.482</t>
+  </si>
+  <si>
+    <t>1.403</t>
+  </si>
+  <si>
+    <t>26.29</t>
+  </si>
+  <si>
     <t>FE</t>
   </si>
   <si>
+    <t>FE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.093</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>20.54</t>
+  </si>
+  <si>
+    <t>1.253</t>
+  </si>
+  <si>
+    <t>1.0880</t>
+  </si>
+  <si>
+    <t>23.45</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>17.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.902</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>19.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.089</t>
+  </si>
+  <si>
+    <t>1.147</t>
+  </si>
+  <si>
+    <t>27.34</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>17.51</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>1.133</t>
+  </si>
+  <si>
+    <t>23.94</t>
+  </si>
+  <si>
+    <t>2.700</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.839</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>2.433</t>
+  </si>
+  <si>
+    <t>1.533</t>
+  </si>
+  <si>
+    <t>25.18</t>
+  </si>
+  <si>
+    <t>1.943</t>
+  </si>
+  <si>
+    <t>1.439</t>
+  </si>
+  <si>
+    <t>24.61</t>
+  </si>
+  <si>
+    <t>1.152</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>1.741</t>
+  </si>
+  <si>
+    <t>25.94</t>
+  </si>
+  <si>
+    <t>3.179</t>
+  </si>
+  <si>
+    <t>1.441</t>
+  </si>
+  <si>
+    <t>1.921</t>
+  </si>
+  <si>
+    <t>1.195</t>
+  </si>
+  <si>
+    <t>24.58</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>18.25</t>
+  </si>
+  <si>
+    <t>1.238</t>
+  </si>
+  <si>
+    <t>1.548</t>
+  </si>
+  <si>
+    <t>27.14</t>
+  </si>
+  <si>
+    <t>1.781</t>
+  </si>
+  <si>
+    <t>1.194</t>
+  </si>
+  <si>
+    <t>24.30</t>
+  </si>
+  <si>
+    <t>1.0680</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
     <t>FT</t>
+  </si>
+  <si>
+    <t>FT1</t>
+  </si>
+  <si>
+    <t>1.979</t>
+  </si>
+  <si>
+    <t>0.812</t>
+  </si>
+  <si>
+    <t>21.33</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>1.361</t>
+  </si>
+  <si>
+    <t>25.700</t>
+  </si>
+  <si>
+    <t>1.208</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>22.080</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>22.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.064</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>21.020</t>
+  </si>
+  <si>
+    <t>1.720</t>
+  </si>
+  <si>
+    <t>1.0230</t>
+  </si>
+  <si>
+    <t>21.84</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>1.340</t>
+  </si>
+  <si>
+    <t>24.15</t>
+  </si>
+  <si>
+    <t>2.568</t>
+  </si>
+  <si>
+    <t>1.0650</t>
+  </si>
+  <si>
+    <t>23.33</t>
+  </si>
+  <si>
+    <t>1.128</t>
+  </si>
+  <si>
+    <t>22.13</t>
+  </si>
+  <si>
+    <t>2.908</t>
+  </si>
+  <si>
+    <t>1.317</t>
+  </si>
+  <si>
+    <t>24.69</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>22.85</t>
+  </si>
+  <si>
+    <t>1.366</t>
+  </si>
+  <si>
+    <t>1.310</t>
+  </si>
+  <si>
+    <t>1.534</t>
+  </si>
+  <si>
+    <t>26.120</t>
+  </si>
+  <si>
+    <t>1.113</t>
+  </si>
+  <si>
+    <t>23.38</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>18.31</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>18.78</t>
+  </si>
+  <si>
+    <t>1.114</t>
+  </si>
+  <si>
+    <t>21.79</t>
+  </si>
+  <si>
+    <t>1.0860</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>21.22</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>1.717</t>
+  </si>
+  <si>
+    <t>27.26</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.002</t>
+  </si>
+  <si>
+    <t>24.77</t>
+  </si>
+  <si>
+    <t>2.353</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>21.39</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>18.100</t>
+  </si>
+  <si>
+    <t>1.963</t>
+  </si>
+  <si>
+    <t>1.347</t>
+  </si>
+  <si>
+    <t>25.84</t>
+  </si>
+  <si>
+    <t>1.950</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>22.54</t>
+  </si>
+  <si>
+    <t>3.347</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>22.97</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>1.492</t>
+  </si>
+  <si>
+    <t>24.14</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>23.35</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>20.58</t>
+  </si>
+  <si>
+    <t>0.813</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.010</t>
+  </si>
+  <si>
+    <t>1.529</t>
+  </si>
+  <si>
+    <t>26.81</t>
+  </si>
+  <si>
+    <t>1.656</t>
+  </si>
+  <si>
+    <t>26.49</t>
+  </si>
+  <si>
+    <t>1.939</t>
+  </si>
+  <si>
+    <t>27.25</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>21.71</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>26.63</t>
+  </si>
+  <si>
+    <t>1.715</t>
+  </si>
+  <si>
+    <t>1.159</t>
+  </si>
+  <si>
+    <t>23.15</t>
+  </si>
+  <si>
+    <t>1.1290</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>21.30</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>19.92</t>
+  </si>
+  <si>
+    <t>FE2</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>21.69</t>
+  </si>
+  <si>
+    <t>1.138</t>
+  </si>
+  <si>
+    <t>1.400</t>
+  </si>
+  <si>
+    <t>23.49</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>17.23</t>
+  </si>
+  <si>
+    <t>1.280</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>20.88</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>1.121</t>
+  </si>
+  <si>
+    <t>22.45</t>
+  </si>
+  <si>
+    <t>3.958</t>
+  </si>
+  <si>
+    <t>1.585</t>
+  </si>
+  <si>
+    <t>26.34</t>
+  </si>
+  <si>
+    <t>1.538</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>1.743</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.60</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.810</t>
+  </si>
+  <si>
+    <t>21.65</t>
+  </si>
+  <si>
+    <t>1.166</t>
+  </si>
+  <si>
+    <t>26.17</t>
+  </si>
+  <si>
+    <t>2.479</t>
+  </si>
+  <si>
+    <t>1.270</t>
+  </si>
+  <si>
+    <t>23.18</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>23.41</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>24.27</t>
+  </si>
+  <si>
+    <t>3.0830</t>
+  </si>
+  <si>
+    <t>1.629</t>
+  </si>
+  <si>
+    <t>26.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.072</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.895</t>
+  </si>
+  <si>
+    <t>22.87</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>18.21</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>1.320</t>
+  </si>
+  <si>
+    <t>FT2</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>18.030</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>1.773</t>
+  </si>
+  <si>
+    <t>26.21</t>
+  </si>
+  <si>
+    <t>2.492</t>
+  </si>
+  <si>
+    <t>1.239</t>
+  </si>
+  <si>
+    <t>24.100</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>21.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.090</t>
+  </si>
+  <si>
+    <t>23.79</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>23.76</t>
+  </si>
+  <si>
+    <t>2.828</t>
+  </si>
+  <si>
+    <t>1.300</t>
+  </si>
+  <si>
+    <t>25.040</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>22.52</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.10</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>20.99</t>
+  </si>
+  <si>
+    <t>2.319</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>21.59</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>19.45</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.087</t>
+  </si>
+  <si>
+    <t>1.681</t>
+  </si>
+  <si>
+    <t>25.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.085</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>19.99</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>1.795</t>
+  </si>
+  <si>
+    <t>26.86</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>21.120</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>1.360</t>
+  </si>
+  <si>
+    <t>23.63</t>
+  </si>
+  <si>
+    <t>1.634</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>1.318</t>
+  </si>
+  <si>
+    <t>1.154</t>
+  </si>
+  <si>
+    <t>1.405</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>21.98</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>18.110</t>
+  </si>
+  <si>
+    <t>2.273</t>
+  </si>
+  <si>
+    <t>2.174</t>
+  </si>
+  <si>
+    <t>27.31</t>
+  </si>
+  <si>
+    <t>1.146</t>
+  </si>
+  <si>
+    <t>1.229</t>
+  </si>
+  <si>
+    <t>23.34</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>1.732</t>
+  </si>
+  <si>
+    <t>24.95</t>
+  </si>
+  <si>
+    <t>1.757</t>
+  </si>
+  <si>
+    <t>0.730</t>
+  </si>
+  <si>
+    <t>22.14</t>
+  </si>
+  <si>
+    <t>1.385</t>
+  </si>
+  <si>
+    <t>21.080</t>
+  </si>
+  <si>
+    <t>1.816</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>23.36</t>
+  </si>
+  <si>
+    <t>1.362</t>
+  </si>
+  <si>
+    <t>21.77</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>2.256</t>
+  </si>
+  <si>
+    <t>26.85</t>
+  </si>
+  <si>
+    <t>1.418</t>
+  </si>
+  <si>
+    <t>24.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.274</t>
+  </si>
+  <si>
+    <t>24.85</t>
+  </si>
+  <si>
+    <t>20.070</t>
+  </si>
+  <si>
+    <t>0.831</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>21.36</t>
+  </si>
+  <si>
+    <t>2.851</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>22.96</t>
+  </si>
+  <si>
+    <t>FE3</t>
+  </si>
+  <si>
+    <t>2.300</t>
+  </si>
+  <si>
+    <t>1.358</t>
+  </si>
+  <si>
+    <t>25.24</t>
+  </si>
+  <si>
+    <t>1.381</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>21.47</t>
+  </si>
+  <si>
+    <t>1.0970</t>
+  </si>
+  <si>
+    <t>1.599</t>
+  </si>
+  <si>
+    <t>27.22</t>
+  </si>
+  <si>
+    <t>2.310</t>
+  </si>
+  <si>
+    <t>23.51</t>
+  </si>
+  <si>
+    <t>1.396</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>19.96</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>19.42</t>
+  </si>
+  <si>
+    <t>1.0480</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>22.73</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>1.105</t>
+  </si>
+  <si>
+    <t>1.407</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>21.090</t>
+  </si>
+  <si>
+    <t>1.831</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>22.62</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>21.38</t>
+  </si>
+  <si>
+    <t>1.189</t>
+  </si>
+  <si>
+    <t>1.484</t>
+  </si>
+  <si>
+    <t>25.100</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>1.206</t>
+  </si>
+  <si>
+    <t>1.203</t>
+  </si>
+  <si>
+    <t>24.030</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>1.633</t>
+  </si>
+  <si>
+    <t>25.060</t>
+  </si>
+  <si>
+    <t>1.703</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>21.76</t>
+  </si>
+  <si>
+    <t>FT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.080</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>20.32</t>
+  </si>
+  <si>
+    <t>0.3673</t>
+  </si>
+  <si>
+    <t>1.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.10</t>
+  </si>
+  <si>
+    <t>19.71</t>
+  </si>
+  <si>
+    <t>3.924</t>
+  </si>
+  <si>
+    <t>22.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.060</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>21.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.087</t>
+  </si>
+  <si>
+    <t>0.886</t>
+  </si>
+  <si>
+    <t>21.27</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>1.104</t>
+  </si>
+  <si>
+    <t>22.61</t>
+  </si>
+  <si>
+    <t>1.137</t>
+  </si>
+  <si>
+    <t>22.18</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.036</t>
+  </si>
+  <si>
+    <t>22.57</t>
+  </si>
+  <si>
+    <t>1.336</t>
+  </si>
+  <si>
+    <t>1.382</t>
+  </si>
+  <si>
+    <t>25.22</t>
+  </si>
+  <si>
+    <t>1.284</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>21.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.716</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.062</t>
+  </si>
+  <si>
+    <t>22.47</t>
+  </si>
+  <si>
+    <t>1.161</t>
+  </si>
+  <si>
+    <t>1.140</t>
+  </si>
+  <si>
+    <t>2.270</t>
+  </si>
+  <si>
+    <t>1.588</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.034</t>
+  </si>
+  <si>
+    <t>22.36</t>
+  </si>
+  <si>
+    <t>1.107</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>18.20</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>1.122</t>
+  </si>
+  <si>
+    <t>23.80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="mmm\.yy"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -607,20 +1926,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -635,22 +1965,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -658,66 +1972,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,7 +1996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,6 +2004,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,13 +2079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +2109,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,67 +2211,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,13 +2235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,55 +2259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,6 +2270,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -971,11 +2316,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,17 +2347,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,191 +2370,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,7 +2884,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2">
@@ -1732,7 +3054,7 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12">
@@ -1902,7 +3224,7 @@
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D22">
@@ -2072,7 +3394,7 @@
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D32">
@@ -2298,10 +3620,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44350</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44352</v>
       </c>
       <c r="C2">
@@ -2333,10 +3655,10 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>44350</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44352</v>
       </c>
       <c r="C3">
@@ -2368,10 +3690,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>44350</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44352</v>
       </c>
       <c r="C4">
@@ -2403,10 +3725,10 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>44350</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>44352</v>
       </c>
       <c r="C5">
@@ -2438,10 +3760,10 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>44350</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>44352</v>
       </c>
       <c r="C6">
@@ -2473,10 +3795,10 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>44350</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>44352</v>
       </c>
       <c r="C7">
@@ -2508,10 +3830,10 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>44350</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>44352</v>
       </c>
       <c r="C8">
@@ -2543,10 +3865,10 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>44350</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>44352</v>
       </c>
       <c r="C9">
@@ -2578,10 +3900,10 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>44350</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>44352</v>
       </c>
       <c r="C10">
@@ -2613,10 +3935,10 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>44350</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>44352</v>
       </c>
       <c r="C11">
@@ -2648,10 +3970,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>44350</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>44352</v>
       </c>
       <c r="C12">
@@ -2683,10 +4005,10 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>44350</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>44352</v>
       </c>
       <c r="C13">
@@ -2718,10 +4040,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>44350</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>44352</v>
       </c>
       <c r="C14">
@@ -2753,10 +4075,10 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>44350</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>44352</v>
       </c>
       <c r="C15">
@@ -2788,10 +4110,10 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>44350</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>44352</v>
       </c>
       <c r="C16">
@@ -2823,10 +4145,10 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>44350</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>44352</v>
       </c>
       <c r="C17">
@@ -2858,10 +4180,10 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>44350</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>44352</v>
       </c>
       <c r="C18">
@@ -2893,10 +4215,10 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>44350</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>44352</v>
       </c>
       <c r="C19">
@@ -2928,10 +4250,10 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>44350</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>44352</v>
       </c>
       <c r="C20">
@@ -2963,10 +4285,10 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>44350</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>44352</v>
       </c>
       <c r="C21">
@@ -2998,10 +4320,10 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>44350</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>44352</v>
       </c>
       <c r="C22">
@@ -3033,10 +4355,10 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>44350</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>44352</v>
       </c>
       <c r="C23">
@@ -3068,10 +4390,10 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>44350</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>44352</v>
       </c>
       <c r="C24">
@@ -3103,10 +4425,10 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>44350</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>44352</v>
       </c>
       <c r="C25">
@@ -3138,10 +4460,10 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>44350</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>44352</v>
       </c>
       <c r="C26">
@@ -3173,10 +4495,10 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>44350</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>44352</v>
       </c>
       <c r="C27">
@@ -3208,10 +4530,10 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>44350</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>44352</v>
       </c>
       <c r="C28">
@@ -3243,10 +4565,10 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>44350</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>44352</v>
       </c>
       <c r="C29">
@@ -3278,10 +4600,10 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>44350</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>44352</v>
       </c>
       <c r="C30">
@@ -3313,10 +4635,10 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>44350</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>44352</v>
       </c>
       <c r="C31">
@@ -3348,10 +4670,10 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>44350</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>44352</v>
       </c>
       <c r="C32">
@@ -3383,10 +4705,10 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>44350</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>44352</v>
       </c>
       <c r="C33">
@@ -3418,10 +4740,10 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>44350</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>44355</v>
       </c>
       <c r="C34">
@@ -3453,10 +4775,10 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>44350</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>44355</v>
       </c>
       <c r="C35">
@@ -3488,10 +4810,10 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>44350</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>44355</v>
       </c>
       <c r="C36">
@@ -3523,10 +4845,10 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>44350</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>44355</v>
       </c>
       <c r="C37">
@@ -3558,10 +4880,10 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>44350</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>44355</v>
       </c>
       <c r="C38">
@@ -3593,10 +4915,10 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>44350</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>44355</v>
       </c>
       <c r="C39">
@@ -3628,10 +4950,10 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>44350</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>44355</v>
       </c>
       <c r="C40">
@@ -3663,10 +4985,10 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>44350</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>44355</v>
       </c>
       <c r="C41">
@@ -3698,10 +5020,10 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>44350</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>44355</v>
       </c>
       <c r="C42">
@@ -3733,10 +5055,10 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>44350</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>44355</v>
       </c>
       <c r="C43">
@@ -3768,10 +5090,10 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>44350</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>44355</v>
       </c>
       <c r="C44">
@@ -3803,10 +5125,10 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44350</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>44355</v>
       </c>
       <c r="C45">
@@ -3838,10 +5160,10 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>44350</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>44355</v>
       </c>
       <c r="C46">
@@ -3873,10 +5195,10 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>44350</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>44355</v>
       </c>
       <c r="C47">
@@ -3908,10 +5230,10 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>44350</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>44355</v>
       </c>
       <c r="C48">
@@ -3943,10 +5265,10 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>44350</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>44355</v>
       </c>
       <c r="C49">
@@ -3978,10 +5300,10 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>44350</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>44355</v>
       </c>
       <c r="C50">
@@ -4013,10 +5335,10 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>44350</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>44355</v>
       </c>
       <c r="C51">
@@ -4048,10 +5370,10 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>44350</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>44358</v>
       </c>
       <c r="C52">
@@ -4083,10 +5405,10 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>44350</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>44358</v>
       </c>
       <c r="C53">
@@ -4118,10 +5440,10 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>44350</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>44358</v>
       </c>
       <c r="C54">
@@ -4153,10 +5475,10 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>44350</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>44358</v>
       </c>
       <c r="C55">
@@ -4188,10 +5510,10 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>44350</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>44358</v>
       </c>
       <c r="C56">
@@ -4223,10 +5545,10 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>44350</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>44358</v>
       </c>
       <c r="C57">
@@ -4258,10 +5580,10 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>44350</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>44358</v>
       </c>
       <c r="C58">
@@ -4293,10 +5615,10 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>44350</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>44358</v>
       </c>
       <c r="C59">
@@ -4328,10 +5650,10 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>44350</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>44358</v>
       </c>
       <c r="C60">
@@ -4363,10 +5685,10 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>44350</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>44358</v>
       </c>
       <c r="C61">
@@ -4398,10 +5720,10 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>44350</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>44358</v>
       </c>
       <c r="C62">
@@ -4433,10 +5755,10 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>44350</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>44358</v>
       </c>
       <c r="C63">
@@ -4468,10 +5790,10 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>44350</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>44358</v>
       </c>
       <c r="C64">
@@ -4503,10 +5825,10 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>44350</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>44358</v>
       </c>
       <c r="C65">
@@ -4538,10 +5860,10 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>44350</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>44358</v>
       </c>
       <c r="C66">
@@ -4573,10 +5895,10 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>44350</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>44358</v>
       </c>
       <c r="C67">
@@ -4608,10 +5930,10 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>44350</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>44358</v>
       </c>
       <c r="C68">
@@ -4643,10 +5965,10 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>44350</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>44358</v>
       </c>
       <c r="C69">
@@ -4678,10 +6000,10 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>44350</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>44358</v>
       </c>
       <c r="C70">
@@ -4713,10 +6035,10 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>44350</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>44358</v>
       </c>
       <c r="C71">
@@ -4748,10 +6070,10 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>44350</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>44358</v>
       </c>
       <c r="C72">
@@ -4783,10 +6105,10 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>44350</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>44361</v>
       </c>
       <c r="C73">
@@ -4818,10 +6140,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>44350</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <v>44361</v>
       </c>
       <c r="C74">
@@ -4853,10 +6175,10 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>44350</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>44361</v>
       </c>
       <c r="C75">
@@ -4888,10 +6210,10 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>44350</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>44361</v>
       </c>
       <c r="C76">
@@ -4923,10 +6245,10 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>44350</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>44361</v>
       </c>
       <c r="C77">
@@ -4958,10 +6280,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>44350</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <v>44361</v>
       </c>
       <c r="C78">
@@ -4993,10 +6315,10 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>44350</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>44361</v>
       </c>
       <c r="C79">
@@ -5028,10 +6350,10 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>44350</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <v>44361</v>
       </c>
       <c r="C80">
@@ -5063,10 +6385,10 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>44350</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>44361</v>
       </c>
       <c r="C81">
@@ -5098,10 +6420,10 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>44350</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <v>44361</v>
       </c>
       <c r="C82">
@@ -5133,10 +6455,10 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>44350</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>44361</v>
       </c>
       <c r="C83">
@@ -5168,10 +6490,10 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>44350</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <v>44361</v>
       </c>
       <c r="C84">
@@ -5203,10 +6525,10 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>44350</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <v>44361</v>
       </c>
       <c r="C85">
@@ -5238,10 +6560,10 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>44350</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <v>44361</v>
       </c>
       <c r="C86">
@@ -5273,10 +6595,10 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>44350</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>44361</v>
       </c>
       <c r="C87">
@@ -5308,10 +6630,10 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>44350</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>44361</v>
       </c>
       <c r="C88">
@@ -5343,10 +6665,10 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>44350</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="3">
         <v>44361</v>
       </c>
       <c r="C89">
@@ -5378,10 +6700,10 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>44350</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>44361</v>
       </c>
       <c r="C90">
@@ -5413,10 +6735,10 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>44350</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>44361</v>
       </c>
       <c r="C91">
@@ -5448,10 +6770,10 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>44350</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>44361</v>
       </c>
       <c r="C92">
@@ -5483,10 +6805,10 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>44350</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>44361</v>
       </c>
       <c r="C93">
@@ -5518,10 +6840,10 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>44350</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>44361</v>
       </c>
       <c r="C94">
@@ -5685,7 +7007,7 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5825,7 +7147,7 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6125,7 +7447,7 @@
       <c r="E28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6265,7 +7587,7 @@
       <c r="E35" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6285,7 +7607,7 @@
       <c r="E36" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6365,7 +7687,7 @@
       <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6885,7 +8207,7 @@
       <c r="E66" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7165,7 +8487,7 @@
       <c r="E80" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7285,7 +8607,7 @@
       <c r="E86" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7305,7 +8627,7 @@
       <c r="E87" t="s">
         <v>5</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7321,815 +8643,4808 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:D57"/>
+      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>181</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>184</v>
       </c>
-      <c r="D2">
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22">
+        <v>203</v>
+      </c>
+      <c r="D22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23">
+        <v>204</v>
+      </c>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24">
+        <v>205</v>
+      </c>
+      <c r="D24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25">
+        <v>206</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <v>208</v>
+      </c>
+      <c r="D27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" t="s">
+        <v>262</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" t="s">
+        <v>264</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29">
+        <v>210</v>
+      </c>
+      <c r="D29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30">
+        <v>211</v>
+      </c>
+      <c r="D30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31">
+        <v>212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32">
+        <v>213</v>
+      </c>
+      <c r="D32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33">
+        <v>214</v>
+      </c>
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" t="s">
+        <v>280</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" t="s">
+        <v>285</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37">
+        <v>218</v>
+      </c>
+      <c r="D37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>287</v>
+      </c>
+      <c r="H37" t="s">
+        <v>288</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38">
+        <v>219</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" t="s">
+        <v>291</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39">
+        <v>301</v>
+      </c>
+      <c r="D39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>294</v>
+      </c>
+      <c r="H39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40">
+        <v>302</v>
+      </c>
+      <c r="D40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>297</v>
+      </c>
+      <c r="H40" t="s">
+        <v>298</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41">
+        <v>303</v>
+      </c>
+      <c r="D41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
+        <v>300</v>
+      </c>
+      <c r="H41" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42">
+        <v>304</v>
+      </c>
+      <c r="D42" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>303</v>
+      </c>
+      <c r="H42" t="s">
+        <v>304</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43">
+        <v>305</v>
+      </c>
+      <c r="D43" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H43" t="s">
+        <v>307</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44">
+        <v>306</v>
+      </c>
+      <c r="D44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>309</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45">
+        <v>307</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>312</v>
+      </c>
+      <c r="H45" t="s">
+        <v>313</v>
+      </c>
+      <c r="I45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46">
+        <v>308</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>315</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47">
+        <v>309</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>318</v>
+      </c>
+      <c r="H47" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48">
+        <v>310</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>320</v>
+      </c>
+      <c r="H48" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49">
+        <v>311</v>
+      </c>
+      <c r="D49" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>323</v>
+      </c>
+      <c r="I49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50">
+        <v>312</v>
+      </c>
+      <c r="D50" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51">
+        <v>313</v>
+      </c>
+      <c r="D51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" t="s">
+        <v>327</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52">
+        <v>315</v>
+      </c>
+      <c r="D52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>36</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>329</v>
+      </c>
+      <c r="I52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53">
+        <v>316</v>
+      </c>
+      <c r="D53" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>331</v>
+      </c>
+      <c r="H53" t="s">
+        <v>332</v>
+      </c>
+      <c r="I53" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54">
+        <v>317</v>
+      </c>
+      <c r="D54" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>334</v>
+      </c>
+      <c r="H54" t="s">
+        <v>335</v>
+      </c>
+      <c r="I54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55">
+        <v>318</v>
+      </c>
+      <c r="D55" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>300</v>
+      </c>
+      <c r="H55" t="s">
+        <v>337</v>
+      </c>
+      <c r="I55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56">
+        <v>319</v>
+      </c>
+      <c r="D56" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>39</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H56" t="s">
+        <v>340</v>
+      </c>
+      <c r="I56" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57">
+        <v>320</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>342</v>
+      </c>
+      <c r="H57" t="s">
+        <v>343</v>
+      </c>
+      <c r="I57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58">
+        <v>401</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>346</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59">
+        <v>402</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>64</v>
+      </c>
+      <c r="G59" t="s">
+        <v>349</v>
+      </c>
+      <c r="H59" t="s">
+        <v>350</v>
+      </c>
+      <c r="I59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>345</v>
+      </c>
+      <c r="C60">
+        <v>403</v>
+      </c>
+      <c r="D60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>40</v>
+      </c>
+      <c r="G60" t="s">
+        <v>352</v>
+      </c>
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>345</v>
+      </c>
+      <c r="C61">
+        <v>404</v>
+      </c>
+      <c r="D61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>354</v>
+      </c>
+      <c r="H61" t="s">
+        <v>355</v>
+      </c>
+      <c r="I61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>345</v>
+      </c>
+      <c r="C62">
+        <v>405</v>
+      </c>
+      <c r="D62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s">
+        <v>357</v>
+      </c>
+      <c r="H62" t="s">
+        <v>358</v>
+      </c>
+      <c r="I62" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" t="s">
+        <v>345</v>
+      </c>
+      <c r="C63">
+        <v>406</v>
+      </c>
+      <c r="D63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
+        <v>360</v>
+      </c>
+      <c r="H63" t="s">
+        <v>361</v>
+      </c>
+      <c r="I63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s">
+        <v>345</v>
+      </c>
+      <c r="C64">
+        <v>407</v>
+      </c>
+      <c r="D64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>363</v>
+      </c>
+      <c r="H64" t="s">
+        <v>364</v>
+      </c>
+      <c r="I64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65">
+        <v>408</v>
+      </c>
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>366</v>
+      </c>
+      <c r="H65" t="s">
+        <v>367</v>
+      </c>
+      <c r="I65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66">
+        <v>409</v>
+      </c>
+      <c r="D66" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s">
+        <v>369</v>
+      </c>
+      <c r="I66" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67">
+        <v>410</v>
+      </c>
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>371</v>
+      </c>
+      <c r="H67" t="s">
+        <v>372</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68">
+        <v>411</v>
+      </c>
+      <c r="D68" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>304</v>
+      </c>
+      <c r="H68" t="s">
+        <v>374</v>
+      </c>
+      <c r="I68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69">
+        <v>412</v>
+      </c>
+      <c r="D69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>376</v>
+      </c>
+      <c r="H69" t="s">
+        <v>285</v>
+      </c>
+      <c r="I69" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70">
+        <v>413</v>
+      </c>
+      <c r="D70" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>378</v>
+      </c>
+      <c r="H70" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" t="s">
+        <v>345</v>
+      </c>
+      <c r="C71">
+        <v>414</v>
+      </c>
+      <c r="D71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s">
+        <v>380</v>
+      </c>
+      <c r="H71" t="s">
+        <v>262</v>
+      </c>
+      <c r="I71" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72">
+        <v>415</v>
+      </c>
+      <c r="D72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>382</v>
+      </c>
+      <c r="I72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" t="s">
+        <v>345</v>
+      </c>
+      <c r="C73">
+        <v>416</v>
+      </c>
+      <c r="D73" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>384</v>
+      </c>
+      <c r="H73" t="s">
+        <v>385</v>
+      </c>
+      <c r="I73" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" t="s">
+        <v>345</v>
+      </c>
+      <c r="C74">
+        <v>417</v>
+      </c>
+      <c r="D74" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>18</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H74" t="s">
+        <v>388</v>
+      </c>
+      <c r="I74" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" ht="13" customHeight="1" spans="1:9">
+      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75">
+        <v>418</v>
+      </c>
+      <c r="D75" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>390</v>
+      </c>
+      <c r="H75" t="s">
+        <v>391</v>
+      </c>
+      <c r="I75" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" t="s">
+        <v>393</v>
+      </c>
+      <c r="C76">
+        <v>501</v>
+      </c>
+      <c r="D76" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>394</v>
+      </c>
+      <c r="I76" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" t="s">
+        <v>393</v>
+      </c>
+      <c r="C77">
+        <v>502</v>
+      </c>
+      <c r="D77" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>396</v>
+      </c>
+      <c r="H77" t="s">
+        <v>397</v>
+      </c>
+      <c r="I77" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>393</v>
+      </c>
+      <c r="C78">
+        <v>503</v>
+      </c>
+      <c r="D78" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+      <c r="G78" t="s">
+        <v>399</v>
+      </c>
+      <c r="H78" t="s">
+        <v>400</v>
+      </c>
+      <c r="I78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" t="s">
+        <v>393</v>
+      </c>
+      <c r="C79">
+        <v>504</v>
+      </c>
+      <c r="D79" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>402</v>
+      </c>
+      <c r="H79" t="s">
+        <v>403</v>
+      </c>
+      <c r="I79" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" t="s">
+        <v>393</v>
+      </c>
+      <c r="C80">
+        <v>505</v>
+      </c>
+      <c r="D80" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>405</v>
+      </c>
+      <c r="H80" t="s">
+        <v>406</v>
+      </c>
+      <c r="I80" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s">
+        <v>393</v>
+      </c>
+      <c r="C81">
+        <v>506</v>
+      </c>
+      <c r="D81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
+        <v>408</v>
+      </c>
+      <c r="H81" t="s">
+        <v>409</v>
+      </c>
+      <c r="I81" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82">
+        <v>508</v>
+      </c>
+      <c r="D82" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s">
+        <v>411</v>
+      </c>
+      <c r="H82" t="s">
+        <v>412</v>
+      </c>
+      <c r="I82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>239</v>
+      </c>
+      <c r="B83" t="s">
+        <v>393</v>
+      </c>
+      <c r="C83">
+        <v>509</v>
+      </c>
+      <c r="D83" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>413</v>
+      </c>
+      <c r="H83" t="s">
+        <v>414</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
+        <v>393</v>
+      </c>
+      <c r="C84">
+        <v>510</v>
+      </c>
+      <c r="D84" t="s">
+        <v>190</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>416</v>
+      </c>
+      <c r="H84" t="s">
+        <v>417</v>
+      </c>
+      <c r="I84" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85">
+        <v>511</v>
+      </c>
+      <c r="D85" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>419</v>
+      </c>
+      <c r="H85" t="s">
+        <v>409</v>
+      </c>
+      <c r="I85" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" t="s">
+        <v>393</v>
+      </c>
+      <c r="C86">
+        <v>512</v>
+      </c>
+      <c r="D86" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>421</v>
+      </c>
+      <c r="H86" t="s">
+        <v>422</v>
+      </c>
+      <c r="I86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87">
+        <v>513</v>
+      </c>
+      <c r="D87" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>323</v>
+      </c>
+      <c r="H87" t="s">
+        <v>424</v>
+      </c>
+      <c r="I87" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" t="s">
+        <v>393</v>
+      </c>
+      <c r="C88">
+        <v>514</v>
+      </c>
+      <c r="D88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>44</v>
+      </c>
+      <c r="G88" t="s">
+        <v>244</v>
+      </c>
+      <c r="H88" t="s">
+        <v>426</v>
+      </c>
+      <c r="I88" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>239</v>
+      </c>
+      <c r="B89" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89">
+        <v>515</v>
+      </c>
+      <c r="D89" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>22</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H89" t="s">
+        <v>429</v>
+      </c>
+      <c r="I89" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90">
+        <v>516</v>
+      </c>
+      <c r="D90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>20</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I90" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" t="s">
+        <v>393</v>
+      </c>
+      <c r="C91">
+        <v>517</v>
+      </c>
+      <c r="D91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>433</v>
+      </c>
+      <c r="H91" t="s">
+        <v>434</v>
+      </c>
+      <c r="I91" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" t="s">
+        <v>393</v>
+      </c>
+      <c r="C92">
+        <v>518</v>
+      </c>
+      <c r="D92" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s">
+        <v>436</v>
+      </c>
+      <c r="H92" t="s">
+        <v>437</v>
+      </c>
+      <c r="I92" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>239</v>
+      </c>
+      <c r="B93" t="s">
+        <v>393</v>
+      </c>
+      <c r="C93">
+        <v>519</v>
+      </c>
+      <c r="D93" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>439</v>
+      </c>
+      <c r="H93" t="s">
+        <v>440</v>
+      </c>
+      <c r="I93" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" t="s">
+        <v>441</v>
+      </c>
+      <c r="C94">
+        <v>601</v>
+      </c>
+      <c r="D94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>442</v>
+      </c>
+      <c r="H94" t="s">
+        <v>443</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>292</v>
+      </c>
+      <c r="B95" t="s">
+        <v>441</v>
+      </c>
+      <c r="C95">
+        <v>602</v>
+      </c>
+      <c r="D95" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>445</v>
+      </c>
+      <c r="H95" t="s">
+        <v>446</v>
+      </c>
+      <c r="I95" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" t="s">
+        <v>441</v>
+      </c>
+      <c r="C96">
+        <v>603</v>
+      </c>
+      <c r="D96" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>448</v>
+      </c>
+      <c r="H96" t="s">
+        <v>449</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>292</v>
+      </c>
+      <c r="B97" t="s">
+        <v>441</v>
+      </c>
+      <c r="C97">
+        <v>604</v>
+      </c>
+      <c r="D97" t="s">
+        <v>190</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" t="s">
+        <v>451</v>
+      </c>
+      <c r="I97" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" t="s">
+        <v>441</v>
+      </c>
+      <c r="C98">
+        <v>605</v>
+      </c>
+      <c r="D98" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>340</v>
+      </c>
+      <c r="H98" t="s">
+        <v>453</v>
+      </c>
+      <c r="I98" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99">
+        <v>606</v>
+      </c>
+      <c r="D99" t="s">
+        <v>190</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s">
+        <v>455</v>
+      </c>
+      <c r="H99" t="s">
+        <v>456</v>
+      </c>
+      <c r="I99" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" t="s">
+        <v>441</v>
+      </c>
+      <c r="C100">
+        <v>607</v>
+      </c>
+      <c r="D100" t="s">
+        <v>190</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>458</v>
+      </c>
+      <c r="H100" t="s">
+        <v>459</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>441</v>
+      </c>
+      <c r="C101">
+        <v>608</v>
+      </c>
+      <c r="D101" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>461</v>
+      </c>
+      <c r="H101" t="s">
+        <v>462</v>
+      </c>
+      <c r="I101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>292</v>
+      </c>
+      <c r="B102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C102">
+        <v>609</v>
+      </c>
+      <c r="D102" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102">
+        <v>7</v>
+      </c>
+      <c r="G102" t="s">
+        <v>464</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103" t="s">
+        <v>441</v>
+      </c>
+      <c r="C103">
+        <v>610</v>
+      </c>
+      <c r="D103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>228</v>
+      </c>
+      <c r="H103" t="s">
+        <v>467</v>
+      </c>
+      <c r="I103" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>292</v>
+      </c>
+      <c r="B104" t="s">
+        <v>441</v>
+      </c>
+      <c r="C104">
+        <v>611</v>
+      </c>
+      <c r="D104" t="s">
+        <v>190</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s">
+        <v>469</v>
+      </c>
+      <c r="H104" t="s">
+        <v>470</v>
+      </c>
+      <c r="I104" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" t="s">
+        <v>441</v>
+      </c>
+      <c r="C105">
+        <v>612</v>
+      </c>
+      <c r="D105" t="s">
+        <v>186</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s">
+        <v>472</v>
+      </c>
+      <c r="H105" t="s">
+        <v>473</v>
+      </c>
+      <c r="I105" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>292</v>
+      </c>
+      <c r="B106" t="s">
+        <v>441</v>
+      </c>
+      <c r="C106">
+        <v>613</v>
+      </c>
+      <c r="D106" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>475</v>
+      </c>
+      <c r="H106" t="s">
+        <v>476</v>
+      </c>
+      <c r="I106" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" t="s">
+        <v>441</v>
+      </c>
+      <c r="C107">
+        <v>614</v>
+      </c>
+      <c r="D107" t="s">
+        <v>186</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H107" t="s">
+        <v>478</v>
+      </c>
+      <c r="I107" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>292</v>
+      </c>
+      <c r="B108" t="s">
+        <v>441</v>
+      </c>
+      <c r="C108">
+        <v>615</v>
+      </c>
+      <c r="D108" t="s">
+        <v>190</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>480</v>
+      </c>
+      <c r="H108" t="s">
+        <v>481</v>
+      </c>
+      <c r="I108" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>292</v>
+      </c>
+      <c r="B109" t="s">
+        <v>441</v>
+      </c>
+      <c r="C109">
+        <v>616</v>
+      </c>
+      <c r="D109" t="s">
+        <v>190</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>483</v>
+      </c>
+      <c r="H109" t="s">
+        <v>484</v>
+      </c>
+      <c r="I109" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110" t="s">
+        <v>441</v>
+      </c>
+      <c r="C110">
+        <v>617</v>
+      </c>
+      <c r="D110" t="s">
+        <v>190</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110">
+        <v>42</v>
+      </c>
+      <c r="G110" t="s">
+        <v>486</v>
+      </c>
+      <c r="H110" t="s">
+        <v>487</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" t="s">
+        <v>489</v>
+      </c>
+      <c r="C111">
+        <v>701</v>
+      </c>
+      <c r="D111" t="s">
+        <v>190</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>7</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>490</v>
+      </c>
+      <c r="I111" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>184</v>
+      </c>
+      <c r="B112" t="s">
+        <v>489</v>
+      </c>
+      <c r="C112">
+        <v>702</v>
+      </c>
+      <c r="D112" t="s">
+        <v>190</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>492</v>
+      </c>
+      <c r="H112" t="s">
+        <v>493</v>
+      </c>
+      <c r="I112" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" t="s">
+        <v>489</v>
+      </c>
+      <c r="C113">
+        <v>703</v>
+      </c>
+      <c r="D113" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>495</v>
+      </c>
+      <c r="H113" t="s">
+        <v>496</v>
+      </c>
+      <c r="I113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" t="s">
+        <v>489</v>
+      </c>
+      <c r="C114">
+        <v>704</v>
+      </c>
+      <c r="D114" t="s">
+        <v>190</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>40</v>
+      </c>
+      <c r="G114" t="s">
+        <v>497</v>
+      </c>
+      <c r="H114" t="s">
+        <v>498</v>
+      </c>
+      <c r="I114" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" t="s">
+        <v>489</v>
+      </c>
+      <c r="C115">
+        <v>705</v>
+      </c>
+      <c r="D115" t="s">
+        <v>186</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>500</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" t="s">
+        <v>489</v>
+      </c>
+      <c r="C116">
+        <v>706</v>
+      </c>
+      <c r="D116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" t="s">
+        <v>489</v>
+      </c>
+      <c r="C117">
+        <v>707</v>
+      </c>
+      <c r="D117" t="s">
+        <v>186</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s">
+        <v>502</v>
+      </c>
+      <c r="H117" t="s">
+        <v>503</v>
+      </c>
+      <c r="I117" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" t="s">
+        <v>489</v>
+      </c>
+      <c r="C118">
+        <v>708</v>
+      </c>
+      <c r="D118" t="s">
+        <v>190</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>505</v>
+      </c>
+      <c r="H118" t="s">
+        <v>506</v>
+      </c>
+      <c r="I118" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" t="s">
+        <v>489</v>
+      </c>
+      <c r="C119">
+        <v>709</v>
+      </c>
+      <c r="D119" t="s">
+        <v>186</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>508</v>
+      </c>
+      <c r="H119" t="s">
+        <v>509</v>
+      </c>
+      <c r="I119" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" t="s">
+        <v>489</v>
+      </c>
+      <c r="C120">
+        <v>710</v>
+      </c>
+      <c r="D120" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120">
+        <v>55</v>
+      </c>
+      <c r="G120" t="s">
+        <v>511</v>
+      </c>
+      <c r="H120" t="s">
+        <v>512</v>
+      </c>
+      <c r="I120" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" t="s">
+        <v>489</v>
+      </c>
+      <c r="C121">
+        <v>711</v>
+      </c>
+      <c r="D121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>514</v>
+      </c>
+      <c r="H121" t="s">
+        <v>95</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122" t="s">
+        <v>489</v>
+      </c>
+      <c r="C122">
+        <v>712</v>
+      </c>
+      <c r="D122" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
+        <v>516</v>
+      </c>
+      <c r="H122" t="s">
+        <v>517</v>
+      </c>
+      <c r="I122" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B123" t="s">
+        <v>489</v>
+      </c>
+      <c r="C123">
+        <v>713</v>
+      </c>
+      <c r="D123" t="s">
+        <v>186</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>205</v>
+      </c>
+      <c r="H123" t="s">
+        <v>519</v>
+      </c>
+      <c r="I123" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124">
+        <v>714</v>
+      </c>
+      <c r="D124" t="s">
+        <v>186</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>521</v>
+      </c>
+      <c r="H124" t="s">
+        <v>522</v>
+      </c>
+      <c r="I124" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" t="s">
+        <v>489</v>
+      </c>
+      <c r="C125">
+        <v>715</v>
+      </c>
+      <c r="D125" t="s">
+        <v>186</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>7</v>
+      </c>
+      <c r="G125" t="s">
+        <v>88</v>
+      </c>
+      <c r="H125" t="s">
+        <v>524</v>
+      </c>
+      <c r="I125" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126" t="s">
+        <v>489</v>
+      </c>
+      <c r="C126">
+        <v>716</v>
+      </c>
+      <c r="D126" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>19</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="I126" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>184</v>
+      </c>
+      <c r="B127" t="s">
+        <v>489</v>
+      </c>
+      <c r="C127">
+        <v>717</v>
+      </c>
+      <c r="D127" t="s">
+        <v>190</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" t="s">
+        <v>508</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>184</v>
+      </c>
+      <c r="B128" t="s">
+        <v>489</v>
+      </c>
+      <c r="C128">
+        <v>718</v>
+      </c>
+      <c r="D128" t="s">
+        <v>190</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3">
+      <c r="G128" t="s">
+        <v>529</v>
+      </c>
+      <c r="H128" t="s">
+        <v>530</v>
+      </c>
+      <c r="I128" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" t="s">
+        <v>489</v>
+      </c>
+      <c r="C129">
+        <v>719</v>
+      </c>
+      <c r="D129" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129">
+        <v>35</v>
+      </c>
+      <c r="G129" t="s">
+        <v>532</v>
+      </c>
+      <c r="H129" t="s">
+        <v>533</v>
+      </c>
+      <c r="I129" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" t="s">
+        <v>535</v>
+      </c>
+      <c r="C130">
+        <v>801</v>
+      </c>
+      <c r="D130" t="s">
+        <v>190</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s">
+        <v>536</v>
+      </c>
+      <c r="H130" t="s">
+        <v>537</v>
+      </c>
+      <c r="I130" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" t="s">
+        <v>535</v>
+      </c>
+      <c r="C131">
+        <v>802</v>
+      </c>
+      <c r="D131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131">
+        <v>28</v>
+      </c>
+      <c r="G131" t="s">
+        <v>539</v>
+      </c>
+      <c r="H131" t="s">
+        <v>540</v>
+      </c>
+      <c r="I131" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>239</v>
+      </c>
+      <c r="B132" t="s">
+        <v>535</v>
+      </c>
+      <c r="C132">
+        <v>803</v>
+      </c>
+      <c r="D132" t="s">
+        <v>186</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>9</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H132" t="s">
+        <v>543</v>
+      </c>
+      <c r="I132" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>239</v>
+      </c>
+      <c r="B133" t="s">
+        <v>535</v>
+      </c>
+      <c r="C133">
+        <v>804</v>
+      </c>
+      <c r="D133" t="s">
+        <v>190</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>545</v>
+      </c>
+      <c r="H133" t="s">
+        <v>318</v>
+      </c>
+      <c r="I133" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" t="s">
+        <v>535</v>
+      </c>
+      <c r="C134">
+        <v>805</v>
+      </c>
+      <c r="D134" t="s">
+        <v>190</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s">
+        <v>547</v>
+      </c>
+      <c r="H134" t="s">
+        <v>548</v>
+      </c>
+      <c r="I134" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>239</v>
+      </c>
+      <c r="B135" t="s">
+        <v>535</v>
+      </c>
+      <c r="C135">
+        <v>806</v>
+      </c>
+      <c r="D135" t="s">
+        <v>186</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>7</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>550</v>
+      </c>
+      <c r="I135" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>239</v>
+      </c>
+      <c r="B136" t="s">
+        <v>535</v>
+      </c>
+      <c r="C136">
+        <v>807</v>
+      </c>
+      <c r="D136" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H136" t="s">
+        <v>553</v>
+      </c>
+      <c r="I136" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" t="s">
+        <v>535</v>
+      </c>
+      <c r="C137">
+        <v>808</v>
+      </c>
+      <c r="D137" t="s">
+        <v>186</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>555</v>
+      </c>
+      <c r="H137" t="s">
+        <v>556</v>
+      </c>
+      <c r="I137" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" t="s">
+        <v>535</v>
+      </c>
+      <c r="C138">
+        <v>809</v>
+      </c>
+      <c r="D138" t="s">
+        <v>186</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>34</v>
+      </c>
+      <c r="G138" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4">
+      <c r="H138" t="s">
+        <v>557</v>
+      </c>
+      <c r="I138" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B139" t="s">
+        <v>535</v>
+      </c>
+      <c r="C139">
+        <v>810</v>
+      </c>
+      <c r="D139" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>558</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>239</v>
+      </c>
+      <c r="B140" t="s">
+        <v>535</v>
+      </c>
+      <c r="C140">
+        <v>811</v>
+      </c>
+      <c r="D140" t="s">
+        <v>190</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>560</v>
+      </c>
+      <c r="H140" t="s">
+        <v>561</v>
+      </c>
+      <c r="I140" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141" t="s">
+        <v>535</v>
+      </c>
+      <c r="C141">
+        <v>812</v>
+      </c>
+      <c r="D141" t="s">
+        <v>190</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141">
+        <v>43</v>
+      </c>
+      <c r="G141" t="s">
+        <v>563</v>
+      </c>
+      <c r="H141" t="s">
+        <v>564</v>
+      </c>
+      <c r="I141" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>239</v>
+      </c>
+      <c r="B142" t="s">
+        <v>535</v>
+      </c>
+      <c r="C142">
+        <v>813</v>
+      </c>
+      <c r="D142" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142">
+        <v>35</v>
+      </c>
+      <c r="G142" t="s">
+        <v>565</v>
+      </c>
+      <c r="H142" t="s">
+        <v>566</v>
+      </c>
+      <c r="I142" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>239</v>
+      </c>
+      <c r="B143" t="s">
+        <v>535</v>
+      </c>
+      <c r="C143">
+        <v>814</v>
+      </c>
+      <c r="D143" t="s">
+        <v>186</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143">
+        <v>44</v>
+      </c>
+      <c r="G143" t="s">
+        <v>568</v>
+      </c>
+      <c r="H143" t="s">
+        <v>569</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" t="s">
+        <v>535</v>
+      </c>
+      <c r="C144">
+        <v>815</v>
+      </c>
+      <c r="D144" t="s">
+        <v>190</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>571</v>
+      </c>
+      <c r="H144" t="s">
+        <v>231</v>
+      </c>
+      <c r="I144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>239</v>
+      </c>
+      <c r="B145" t="s">
+        <v>535</v>
+      </c>
+      <c r="C145">
+        <v>816</v>
+      </c>
+      <c r="D145" t="s">
+        <v>186</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>572</v>
+      </c>
+      <c r="H145" t="s">
+        <v>573</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>239</v>
+      </c>
+      <c r="B146" t="s">
+        <v>535</v>
+      </c>
+      <c r="C146">
+        <v>817</v>
+      </c>
+      <c r="D146" t="s">
+        <v>186</v>
+      </c>
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>575</v>
+      </c>
+      <c r="H146" t="s">
+        <v>576</v>
+      </c>
+      <c r="I146" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>239</v>
+      </c>
+      <c r="B147" t="s">
+        <v>535</v>
+      </c>
+      <c r="C147">
+        <v>818</v>
+      </c>
+      <c r="D147" t="s">
+        <v>190</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>578</v>
+      </c>
+      <c r="H147" t="s">
+        <v>579</v>
+      </c>
+      <c r="I147" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" t="s">
+        <v>581</v>
+      </c>
+      <c r="C148">
+        <v>901</v>
+      </c>
+      <c r="D148" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148">
+        <v>36</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H148" t="s">
+        <v>583</v>
+      </c>
+      <c r="I148" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
+        <v>581</v>
+      </c>
+      <c r="C149">
+        <v>902</v>
+      </c>
+      <c r="D149" t="s">
+        <v>186</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s">
+        <v>585</v>
+      </c>
+      <c r="H149" t="s">
+        <v>586</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" t="s">
+        <v>581</v>
+      </c>
+      <c r="C150">
+        <v>903</v>
+      </c>
+      <c r="D150" t="s">
+        <v>186</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>36</v>
+      </c>
+      <c r="H150" t="s">
+        <v>212</v>
+      </c>
+      <c r="I150" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" t="s">
+        <v>581</v>
+      </c>
+      <c r="C151">
+        <v>904</v>
+      </c>
+      <c r="D151" t="s">
+        <v>190</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>589</v>
+      </c>
+      <c r="H151" t="s">
+        <v>476</v>
+      </c>
+      <c r="I151" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" t="s">
+        <v>581</v>
+      </c>
+      <c r="C152">
+        <v>905</v>
+      </c>
+      <c r="D152" t="s">
+        <v>186</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6">
+      <c r="G152" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H152" t="s">
+        <v>592</v>
+      </c>
+      <c r="I152" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>292</v>
+      </c>
+      <c r="B153" t="s">
+        <v>581</v>
+      </c>
+      <c r="C153">
+        <v>906</v>
+      </c>
+      <c r="D153" t="s">
+        <v>186</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153">
+        <v>26</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H153" t="s">
+        <v>595</v>
+      </c>
+      <c r="I153" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>292</v>
+      </c>
+      <c r="B154" t="s">
+        <v>581</v>
+      </c>
+      <c r="C154">
+        <v>907</v>
+      </c>
+      <c r="D154" t="s">
+        <v>190</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>597</v>
+      </c>
+      <c r="H154" t="s">
+        <v>598</v>
+      </c>
+      <c r="I154" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>292</v>
+      </c>
+      <c r="B155" t="s">
+        <v>581</v>
+      </c>
+      <c r="C155">
+        <v>908</v>
+      </c>
+      <c r="D155" t="s">
+        <v>186</v>
+      </c>
+      <c r="E155" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>33</v>
+      </c>
+      <c r="G155" t="s">
+        <v>36</v>
+      </c>
+      <c r="H155" t="s">
+        <v>600</v>
+      </c>
+      <c r="I155" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>292</v>
+      </c>
+      <c r="B156" t="s">
+        <v>581</v>
+      </c>
+      <c r="C156">
+        <v>909</v>
+      </c>
+      <c r="D156" t="s">
+        <v>186</v>
+      </c>
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156" t="s">
+        <v>602</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I156" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>292</v>
+      </c>
+      <c r="B157" t="s">
+        <v>581</v>
+      </c>
+      <c r="C157">
+        <v>910</v>
+      </c>
+      <c r="D157" t="s">
+        <v>190</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>605</v>
+      </c>
+      <c r="H157" t="s">
+        <v>606</v>
+      </c>
+      <c r="I157" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" t="s">
+        <v>581</v>
+      </c>
+      <c r="C158">
+        <v>911</v>
+      </c>
+      <c r="D158" t="s">
+        <v>190</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>608</v>
+      </c>
+      <c r="H158" t="s">
+        <v>609</v>
+      </c>
+      <c r="I158" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>292</v>
+      </c>
+      <c r="B159" t="s">
+        <v>581</v>
+      </c>
+      <c r="C159">
+        <v>912</v>
+      </c>
+      <c r="D159" t="s">
+        <v>186</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>15</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="I159" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>292</v>
+      </c>
+      <c r="B160" t="s">
+        <v>581</v>
+      </c>
+      <c r="C160">
+        <v>913</v>
+      </c>
+      <c r="D160" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s">
+        <v>36</v>
+      </c>
+      <c r="H160" t="s">
+        <v>614</v>
+      </c>
+      <c r="I160" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>292</v>
+      </c>
+      <c r="B161" t="s">
+        <v>581</v>
+      </c>
+      <c r="C161">
+        <v>914</v>
+      </c>
+      <c r="D161" t="s">
+        <v>186</v>
+      </c>
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>615</v>
+      </c>
+      <c r="I161" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>292</v>
+      </c>
+      <c r="B162" t="s">
+        <v>581</v>
+      </c>
+      <c r="C162">
+        <v>915</v>
+      </c>
+      <c r="D162" t="s">
+        <v>190</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H162" t="s">
+        <v>617</v>
+      </c>
+      <c r="I162" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>292</v>
+      </c>
+      <c r="B163" t="s">
+        <v>581</v>
+      </c>
+      <c r="C163">
+        <v>916</v>
+      </c>
+      <c r="D163" t="s">
+        <v>190</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12">
-        <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15">
+      <c r="G163" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I163" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>292</v>
+      </c>
+      <c r="B164" t="s">
+        <v>581</v>
+      </c>
+      <c r="C164">
+        <v>917</v>
+      </c>
+      <c r="D164" t="s">
+        <v>186</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>621</v>
+      </c>
+      <c r="H164" t="s">
+        <v>622</v>
+      </c>
+      <c r="I164" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>292</v>
+      </c>
+      <c r="B165" t="s">
+        <v>581</v>
+      </c>
+      <c r="C165">
+        <v>918</v>
+      </c>
+      <c r="D165" t="s">
+        <v>190</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16">
-        <v>115</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19">
-        <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20">
-        <v>201</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21">
-        <v>202</v>
-      </c>
-      <c r="C21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22">
-        <v>203</v>
-      </c>
-      <c r="C22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23">
-        <v>204</v>
-      </c>
-      <c r="C23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24">
-        <v>205</v>
-      </c>
-      <c r="C24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26">
-        <v>207</v>
-      </c>
-      <c r="C26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27">
-        <v>208</v>
-      </c>
-      <c r="C27" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28">
-        <v>209</v>
-      </c>
-      <c r="C28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29">
-        <v>210</v>
-      </c>
-      <c r="C29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30">
-        <v>211</v>
-      </c>
-      <c r="C30" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31">
-        <v>212</v>
-      </c>
-      <c r="C31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32">
-        <v>213</v>
-      </c>
-      <c r="C32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33">
-        <v>214</v>
-      </c>
-      <c r="C33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34">
-        <v>215</v>
-      </c>
-      <c r="C34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35">
-        <v>216</v>
-      </c>
-      <c r="C35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36">
-        <v>217</v>
-      </c>
-      <c r="C36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37">
-        <v>218</v>
-      </c>
-      <c r="C37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38">
-        <v>219</v>
-      </c>
-      <c r="C38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39">
-        <v>301</v>
-      </c>
-      <c r="C39" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40">
-        <v>302</v>
-      </c>
-      <c r="C40" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41">
-        <v>303</v>
-      </c>
-      <c r="C41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42">
-        <v>304</v>
-      </c>
-      <c r="C42" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43">
-        <v>305</v>
-      </c>
-      <c r="C43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44">
-        <v>306</v>
-      </c>
-      <c r="C44" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45">
-        <v>307</v>
-      </c>
-      <c r="C45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>187</v>
-      </c>
-      <c r="B46">
-        <v>308</v>
-      </c>
-      <c r="C46" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B47">
-        <v>309</v>
-      </c>
-      <c r="C47" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48">
-        <v>310</v>
-      </c>
-      <c r="C48" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49">
-        <v>311</v>
-      </c>
-      <c r="C49" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50">
-        <v>312</v>
-      </c>
-      <c r="C50" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B51">
-        <v>313</v>
-      </c>
-      <c r="C51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>187</v>
-      </c>
-      <c r="B52">
-        <v>315</v>
-      </c>
-      <c r="C52" t="s">
-        <v>184</v>
-      </c>
-      <c r="D52">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53">
-        <v>316</v>
-      </c>
-      <c r="C53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54">
-        <v>317</v>
-      </c>
-      <c r="C54" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>187</v>
-      </c>
-      <c r="B55">
-        <v>318</v>
-      </c>
-      <c r="C55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D55">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>187</v>
-      </c>
-      <c r="B56">
-        <v>319</v>
-      </c>
-      <c r="C56" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57">
-        <v>320</v>
-      </c>
-      <c r="C57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57">
-        <v>19</v>
+      <c r="G165" t="s">
+        <v>624</v>
+      </c>
+      <c r="H165" t="s">
+        <v>625</v>
+      </c>
+      <c r="I165" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I165">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
